--- a/Instances/05_SlowMoving_b2_fe25_en_rk50_ll0_l20.xlsx
+++ b/Instances/05_SlowMoving_b2_fe25_en_rk50_ll0_l20.xlsx
@@ -3060,13 +3060,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>9.449999999999999</v>
+        <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>39.52</v>
+        <v>0.015808</v>
       </c>
       <c r="F2" t="n">
-        <v>18.9</v>
+        <v>0.007560000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>189</v>
+        <v>0.0756</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.98</v>
+        <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>13.92</v>
+        <v>0.005568</v>
       </c>
       <c r="F3" t="n">
-        <v>13.96</v>
+        <v>0.005584</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>139.6</v>
+        <v>0.05584</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3118,13 +3118,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.06</v>
+        <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>10.96</v>
+        <v>0.004384000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>56.11999999999999</v>
+        <v>0.022448</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>561.1999999999999</v>
+        <v>0.22448</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3147,13 +3147,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>27.75</v>
+        <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>9.56</v>
+        <v>0.003824000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>55.5</v>
+        <v>0.0222</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>555</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3176,13 +3176,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>31.11</v>
+        <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>6.36</v>
+        <v>0.002544</v>
       </c>
       <c r="F6" t="n">
-        <v>62.21999999999999</v>
+        <v>0.024888</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>622.1999999999999</v>
+        <v>0.24888</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3205,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>11.48</v>
+        <v>0.004592000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>64</v>
+        <v>0.0256</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>640</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3234,13 +3234,13 @@
         <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8</v>
+        <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>12.8</v>
+        <v>0.00512</v>
       </c>
       <c r="F8" t="n">
-        <v>1.6</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>16</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3263,13 +3263,13 @@
         <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>1.24</v>
+        <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>19.84</v>
+        <v>0.007936</v>
       </c>
       <c r="F9" t="n">
-        <v>2.48</v>
+        <v>0.000992</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>24.8</v>
+        <v>0.00992</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3292,13 +3292,13 @@
         <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>1.2</v>
+        <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>19.2</v>
+        <v>0.00768</v>
       </c>
       <c r="F10" t="n">
-        <v>2.4</v>
+        <v>0.00096</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>24</v>
+        <v>0.009600000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3321,13 +3321,13 @@
         <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>0.85</v>
+        <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>13.6</v>
+        <v>0.00544</v>
       </c>
       <c r="F11" t="n">
-        <v>1.7</v>
+        <v>0.00068</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>17</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3350,13 +3350,13 @@
         <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>0.83</v>
+        <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>13.28</v>
+        <v>0.005312</v>
       </c>
       <c r="F12" t="n">
-        <v>1.66</v>
+        <v>0.000664</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.6</v>
+        <v>0.00664</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3379,13 +3379,13 @@
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>1.19</v>
+        <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>19.04</v>
+        <v>0.007616</v>
       </c>
       <c r="F13" t="n">
-        <v>2.38</v>
+        <v>0.000952</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>23.8</v>
+        <v>0.009520000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3408,13 +3408,13 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>1.03</v>
+        <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>4.12</v>
+        <v>0.001648</v>
       </c>
       <c r="F14" t="n">
-        <v>2.06</v>
+        <v>0.0008240000000000001</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>20.6</v>
+        <v>0.008240000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3437,13 +3437,13 @@
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>14.01</v>
+        <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>112.08</v>
+        <v>0.044832</v>
       </c>
       <c r="F15" t="n">
-        <v>28.02</v>
+        <v>0.011208</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>280.2</v>
+        <v>0.11208</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3466,13 +3466,13 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>1.07</v>
+        <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>4.28</v>
+        <v>0.001712</v>
       </c>
       <c r="F16" t="n">
-        <v>2.14</v>
+        <v>0.0008560000000000001</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21.4</v>
+        <v>0.008560000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3495,13 +3495,13 @@
         <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>0.83</v>
+        <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>13.28</v>
+        <v>0.005312</v>
       </c>
       <c r="F17" t="n">
-        <v>1.66</v>
+        <v>0.000664</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>16.6</v>
+        <v>0.00664</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3524,13 +3524,13 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>1.27</v>
+        <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>5.08</v>
+        <v>0.002032</v>
       </c>
       <c r="F18" t="n">
-        <v>2.54</v>
+        <v>0.001016</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>25.4</v>
+        <v>0.01016</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3553,13 +3553,13 @@
         <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>17.97</v>
+        <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>143.76</v>
+        <v>0.057504</v>
       </c>
       <c r="F19" t="n">
-        <v>35.94</v>
+        <v>0.014376</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>359.4</v>
+        <v>0.14376</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3582,13 +3582,13 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>0.88</v>
+        <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>3.52</v>
+        <v>0.001408</v>
       </c>
       <c r="F20" t="n">
-        <v>1.76</v>
+        <v>0.0007040000000000001</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>17.6</v>
+        <v>0.007040000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3611,22 +3611,22 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>29.25</v>
+        <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>2.38</v>
+        <v>0.000952</v>
       </c>
       <c r="F21" t="n">
-        <v>58.49999999999999</v>
+        <v>0.0234</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>395.78</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>584.9999999999999</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3640,22 +3640,22 @@
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>29.50999999999999</v>
+        <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>2.9</v>
+        <v>0.00116</v>
       </c>
       <c r="F22" t="n">
-        <v>59.01999999999999</v>
+        <v>0.023608</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>450.28</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>590.1999999999999</v>
+        <v>0.23608</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3669,22 +3669,22 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>29.33</v>
+        <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>3.16</v>
+        <v>0.001264</v>
       </c>
       <c r="F23" t="n">
-        <v>58.66</v>
+        <v>0.023464</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>2573.63</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>586.5999999999999</v>
+        <v>0.23464</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3698,22 +3698,22 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>30.15</v>
+        <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>4.8</v>
+        <v>0.00192</v>
       </c>
       <c r="F24" t="n">
-        <v>60.3</v>
+        <v>0.02412</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>3043.73</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>603</v>
+        <v>0.2412</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3727,22 +3727,22 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>32.55</v>
+        <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>2.88</v>
+        <v>0.001152</v>
       </c>
       <c r="F25" t="n">
-        <v>65.09999999999999</v>
+        <v>0.02604</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>458.75</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>651</v>
+        <v>0.2604</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3756,22 +3756,22 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>32.36</v>
+        <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>2.5</v>
+        <v>0.001</v>
       </c>
       <c r="F26" t="n">
-        <v>64.72</v>
+        <v>0.025888</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>367.7</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>647.2</v>
+        <v>0.25888</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3785,22 +3785,22 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>33.59</v>
+        <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>3.18</v>
+        <v>0.001272</v>
       </c>
       <c r="F27" t="n">
-        <v>67.18000000000001</v>
+        <v>0.026872</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>2048.39</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>671.8000000000001</v>
+        <v>0.26872</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3814,22 +3814,22 @@
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>33.98</v>
+        <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>3.96</v>
+        <v>0.001584</v>
       </c>
       <c r="F28" t="n">
-        <v>67.95999999999999</v>
+        <v>0.027184</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>3032.27</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>679.5999999999999</v>
+        <v>0.27184</v>
       </c>
     </row>
   </sheetData>
@@ -4528,28 +4528,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>395.78</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>450.28</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>2573.63</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>3043.73</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>458.75</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>367.7</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>2048.39</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>3032.27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -4614,28 +4614,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>395.78</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>450.28</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>2573.63</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>3043.73</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>458.75</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="n">
-        <v>367.7</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>2048.39</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>3032.27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -4700,28 +4700,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>395.78</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>450.28</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>2573.63</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>3043.73</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.75</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>367.7</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>2048.39</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="n">
-        <v>3032.27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -4786,28 +4786,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>395.78</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>450.28</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>2573.63</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>3043.73</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
-        <v>458.75</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>367.7</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>2048.39</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>3032.27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4872,28 +4872,28 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>395.78</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>450.28</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>2573.63</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>3043.73</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>458.75</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>367.7</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>2048.39</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
-        <v>3032.27</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_SlowMoving_b2_fe25_en_rk50_ll0_l20.xlsx
+++ b/Instances/05_SlowMoving_b2_fe25_en_rk50_ll0_l20.xlsx
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
@@ -3231,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
@@ -3434,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
@@ -3463,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
@@ -3521,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
@@ -3579,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
@@ -3608,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
@@ -3637,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
@@ -3695,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
@@ -3724,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
@@ -3753,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
@@ -3782,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
@@ -3811,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>60.8</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4933,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4941,7 +4941,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1360.6</v>
+        <v>3401.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4949,7 +4949,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4957,7 +4957,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2656.8</v>
+        <v>6642</v>
       </c>
     </row>
   </sheetData>
